--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,12 +12,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Airport Meet Cute</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>storyEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport, her bag skidding behind her half-zipped. </t>
+  </si>
+  <si>
+    <t>He had 3 hours until his flight, but she  has less than 1 and was visibly stressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her yoga class had ran over, and afterwards she had spent extra time talking with friends without keeping track of time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Despite Anna's frazzled state, David was instantly intrigued by her; he thought she was beautiful, reminded him of one of his favorite paintings</t>
+  </si>
+  <si>
+    <t>Anna, a few steps into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind her, David saw someone with a tall cart of luggage heading straight for where Anna was kneeling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both Anna and the person driving the cart were oblivious to the collision that was about to happen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David ran over and pushed her out of the way just in the nick of time, and they tumbled a bit on the airport floor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna looked up and saw the cart pass by, and then looked over at David, bewildered. </t>
+  </si>
+  <si>
+    <t>He gave a smile back, “You alright?” he said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Uh yeah. Wow, thank you, I almost got smooshed by that cart,” she stammered, her head still spinning as she stared at the handsome stranger who had saved her. </t>
+  </si>
+  <si>
+    <t>David helped her up, but had to keep holding on to her arms to steady her even once they were standing.Anna blushed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “I’m really late for my flight,” she said. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Don't worry," said David, "let me help you get to your gate." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He waved off her half-hearted protests. </t>
+  </si>
+  <si>
+    <t>"Really, I have plenty of time and nothing better to do."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They headed to the security line. </t>
+  </si>
+  <si>
+    <t>The line was not too long, and they spent the time chatting, and getting to know each other better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It turned out that Anna and David both went to the same high school, but David had been 5 years older.</t>
+  </si>
+  <si>
+    <t>When they got to the front of the line they took off their shoes and pulled off their coats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both of them went through the metal detector without any problems. </t>
+  </si>
+  <si>
+    <t>Anna’s flight was in 20 minutes, so as she was rushing to put her shoes back on and her laptop back in the bag, David asked her, “So when are you coming back?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“In a week, short trip,” Anna replied. </t>
+  </si>
+  <si>
+    <t>“Me too.</t>
+  </si>
+  <si>
+    <t>When we're back in town, is there any chance you'd want to get dinner?</t>
+  </si>
+  <si>
+    <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen."</t>
+  </si>
+  <si>
+    <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then they ran off to Anna’s gate, which was at the end of the terminal. </t>
+  </si>
+  <si>
+    <t>David took her backpack and put it on, and then grabbed her hand and navigated quickly through the crowds of people.</t>
+  </si>
+  <si>
+    <t>Anna was amazed at everything that was happening; she had arrived at the airport doubtful that she would make it and was now confident that she would, due to this handsome and kind man she just met.</t>
+  </si>
+  <si>
+    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the backpack and promised to call her next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She gave him one last embarrassed smile, then approached the flight attendant who scanned her ticket. </t>
+  </si>
+  <si>
+    <t>Finally, she boarded in the plane, sliding into her window seat all the way in the back of the plane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She ignored the grumbles of complaint as she squeezed past the other passengers in her row, and settled back in her seat barely containing her glee. </t>
+  </si>
+  <si>
+    <t>She was thankful that she had not only made it onto the plane in time, but also that she had been clumsy enough to forget to tie her shoes.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +292,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +305,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +320,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1417,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1433,586 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+    <row r="2" ht="92.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="68.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="104.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="116.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="92.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="92.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="92.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="68.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="44.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="140.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="104.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="56.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="44.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="56.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="80.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="92.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="80.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="68.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="128.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="68.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="80.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="56.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="104.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="164.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="152.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="92.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="80.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="128.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="104.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>storyText</t>
   </si>
@@ -23,43 +23,55 @@
     <t>storyEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport, her bag skidding behind her half-zipped. </t>
-  </si>
-  <si>
-    <t>He had 3 hours until his flight, but she  has less than 1 and was visibly stressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Her yoga class had ran over, and afterwards she had spent extra time talking with friends without keeping track of time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Despite Anna's frazzled state, David was instantly intrigued by her; he thought she was beautiful, reminded him of one of his favorite paintings</t>
-  </si>
-  <si>
-    <t>Anna, a few steps into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behind her, David saw someone with a tall cart of luggage heading straight for where Anna was kneeling. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both Anna and the person driving the cart were oblivious to the collision that was about to happen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David ran over and pushed her out of the way just in the nick of time, and they tumbled a bit on the airport floor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna looked up and saw the cart pass by, and then looked over at David, bewildered. </t>
-  </si>
-  <si>
-    <t>He gave a smile back, “You alright?” he said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Uh yeah. Wow, thank you, I almost got smooshed by that cart,” she stammered, her head still spinning as she stared at the handsome stranger who had saved her. </t>
-  </si>
-  <si>
-    <t>David helped her up, but had to keep holding on to her arms to steady her even once they were standing.Anna blushed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “I’m really late for my flight,” she said. </t>
+    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport with her bag skidding behind her half-zipped. </t>
+  </si>
+  <si>
+    <t>He had three hours until his flight, but she clearly had less than one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna’s yoga class had ran over, and afterwards, she, forgetting the time, had lingered to talk with friends. </t>
+  </si>
+  <si>
+    <t>Despite Anna's frazzled state, David was instantly intrigued by her.</t>
+  </si>
+  <si>
+    <t>He thought she was beautiful, and she reminded him of one of his favorite paintings.</t>
+  </si>
+  <si>
+    <t>Anna, a few strides into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David observed that someone with a tall cart of luggage was heading straight for where Anna was kneeling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both Anna and the person driving the cart were oblivious to the impending collision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David had to intervene, and he ran in front of the cart pushing her out of the way just in the nick of time, and they tumbled on the airport floor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna, bewildered, looked up and saw the cart pass by and then looked over at David. </t>
+  </si>
+  <si>
+    <t>He gave a smile back.</t>
+  </si>
+  <si>
+    <t>“You alright?”, he said.</t>
+  </si>
+  <si>
+    <t>She whispered, “Uh yeah.</t>
+  </si>
+  <si>
+    <t>I almost got smooshed by that cart.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her head was still spinning as she stared at the handsome stranger who had saved her. </t>
+  </si>
+  <si>
+    <t>David helped her up and had to keep holding on to her arms to steady her even once they were standing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I’m really late for my flight,” she said. </t>
   </si>
   <si>
     <t xml:space="preserve">"Don't worry," said David, "let me help you get to your gate." </t>
@@ -71,31 +83,31 @@
     <t>"Really, I have plenty of time and nothing better to do."</t>
   </si>
   <si>
-    <t xml:space="preserve"> They headed to the security line. </t>
-  </si>
-  <si>
-    <t>The line was not too long, and they spent the time chatting, and getting to know each other better.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It turned out that Anna and David both went to the same high school, but David had been 5 years older.</t>
+    <t xml:space="preserve">They headed to the security line. </t>
+  </si>
+  <si>
+    <t>The line was not long, and they spent the time chatting and getting to know each other.</t>
+  </si>
+  <si>
+    <t>It turned out that Anna and David went to the same high school but Anna had been 3 years older.</t>
   </si>
   <si>
     <t>When they got to the front of the line they took off their shoes and pulled off their coats.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Both of them went through the metal detector without any problems. </t>
-  </si>
-  <si>
-    <t>Anna’s flight was in 20 minutes, so as she was rushing to put her shoes back on and her laptop back in the bag, David asked her, “So when are you coming back?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“In a week, short trip,” Anna replied. </t>
-  </si>
-  <si>
-    <t>“Me too.</t>
-  </si>
-  <si>
-    <t>When we're back in town, is there any chance you'd want to get dinner?</t>
+    <t xml:space="preserve">Both of them went through the metal detector without any problems. </t>
+  </si>
+  <si>
+    <t>Anna’s flight was in 20 minutes, and as she was rushing to put her shoes and coat back on, David asked her, “So when are you coming back?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“In a week, it’s a short trip,” Anna replied. </t>
+  </si>
+  <si>
+    <t>“Me too,” David said.</t>
+  </si>
+  <si>
+    <t>He continued, “When we're back in town, is there any chance you'd want to get dinner?</t>
   </si>
   <si>
     <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen."</t>
@@ -104,25 +116,25 @@
     <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Then they ran off to Anna’s gate, which was at the end of the terminal. </t>
-  </si>
-  <si>
-    <t>David took her backpack and put it on, and then grabbed her hand and navigated quickly through the crowds of people.</t>
-  </si>
-  <si>
-    <t>Anna was amazed at everything that was happening; she had arrived at the airport doubtful that she would make it and was now confident that she would, due to this handsome and kind man she just met.</t>
-  </si>
-  <si>
-    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the backpack and promised to call her next week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She gave him one last embarrassed smile, then approached the flight attendant who scanned her ticket. </t>
-  </si>
-  <si>
-    <t>Finally, she boarded in the plane, sliding into her window seat all the way in the back of the plane.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She ignored the grumbles of complaint as she squeezed past the other passengers in her row, and settled back in her seat barely containing her glee. </t>
+    <t xml:space="preserve">Then they ran off to Anna’s gate which was at the end of the terminal. </t>
+  </si>
+  <si>
+    <t>David took put on her backpack, grabbed her hand, and navigated quickly through the crowds of people.</t>
+  </si>
+  <si>
+    <t>Anna was amazed at everything that was happening; she had arrived at the airport doubtful that she would make it and was now confident that she would due to this handsome and kind man she just met.</t>
+  </si>
+  <si>
+    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the backpack, and he promised to call her next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She gave him one last embarrassed smile and approached the flight attendant who scanned her ticket. </t>
+  </si>
+  <si>
+    <t>Finally, she boarded the plane, sliding into her window seat located all the way in the back of the plane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barely containing her glee, she ignored the grumbles of complaint as she squeezed past the other passengers in her row and settled back in her seat. </t>
   </si>
   <si>
     <t>She was thankful that she had not only made it onto the plane in time, but also that she had been clumsy enough to forget to tie her shoes.</t>
@@ -139,7 +151,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1417,7 +1429,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1425,7 +1437,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,7 +1492,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="104.05" customHeight="1">
+    <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
@@ -1489,7 +1507,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="116.05" customHeight="1">
+    <row r="5" ht="68.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>6</v>
       </c>
@@ -1504,7 +1522,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="92.05" customHeight="1">
+    <row r="6" ht="68.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
@@ -1534,7 +1552,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="80.05" customHeight="1">
+    <row r="8" ht="92.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
@@ -1549,7 +1567,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="92.05" customHeight="1">
+    <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
@@ -1557,14 +1575,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="68.05" customHeight="1">
+    <row r="10" ht="116.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1579,7 +1597,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="44.05" customHeight="1">
+    <row r="11" ht="80.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1594,7 +1612,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="140.05" customHeight="1">
+    <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1609,7 +1627,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="104.05" customHeight="1">
+    <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1624,7 +1642,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="44.05" customHeight="1">
+    <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1639,7 +1657,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="56.05" customHeight="1">
+    <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1654,7 +1672,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="44.05" customHeight="1">
+    <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
@@ -1669,7 +1687,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="56.05" customHeight="1">
+    <row r="17" ht="92.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
@@ -1684,12 +1702,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="32.05" customHeight="1">
+    <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1699,12 +1717,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1714,12 +1732,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="92.05" customHeight="1">
+    <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1729,22 +1747,22 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="80.05" customHeight="1">
+    <row r="21" ht="56.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="68.05" customHeight="1">
+    <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1752,14 +1770,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="128.05" customHeight="1">
+    <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1767,14 +1785,14 @@
         <v>2</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="32.05" customHeight="1">
+    <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1782,14 +1800,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1804,7 +1822,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="56.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1819,7 +1837,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1834,7 +1852,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="56.05" customHeight="1">
+    <row r="28" ht="44.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1849,12 +1867,12 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="68.05" customHeight="1">
+    <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -1864,12 +1882,12 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="104.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -1879,12 +1897,12 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="164.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B31" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -1894,22 +1912,22 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="152.05" customHeight="1">
+    <row r="32" ht="56.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
       <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
         <v>3</v>
-      </c>
-      <c r="C32" s="10">
-        <v>4</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="92.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1917,49 +1935,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="80.05" customHeight="1">
+    <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B34" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="128.05" customHeight="1">
+    <row r="35" ht="164.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B35" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="104.05" customHeight="1">
+    <row r="36" ht="152.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>37</v>
       </c>
       <c r="B36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
@@ -1969,37 +1987,61 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="11"/>
+    <row r="37" ht="92.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="11"/>
+    <row r="38" ht="92.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="11"/>
+    <row r="39" ht="128.05" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="11"/>
+    <row r="40" ht="104.05" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -2014,6 +2056,42 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -20,7 +20,7 @@
     <t>locationEvent</t>
   </si>
   <si>
-    <t>storyEvent</t>
+    <t>socialEvent</t>
   </si>
   <si>
     <t xml:space="preserve">David saw Anna for the first time when she burst into the airport with her bag skidding behind her half-zipped. </t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">“I’m really late for my flight,” she said. </t>
   </si>
   <si>
-    <t xml:space="preserve">"Don't worry," said David, "let me help you get to your gate." </t>
+    <t xml:space="preserve">“Don't worry,” said David, "let me help you get to your gate." </t>
   </si>
   <si>
     <t xml:space="preserve">He waved off her half-hearted protests. </t>
   </si>
   <si>
-    <t>"Really, I have plenty of time and nothing better to do."</t>
+    <t>“Really , I have plenty of time and nothing better to do.”</t>
   </si>
   <si>
     <t xml:space="preserve">They headed to the security line. </t>
@@ -110,7 +110,7 @@
     <t>He continued, “When we're back in town, is there any chance you'd want to get dinner?</t>
   </si>
   <si>
-    <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen."</t>
+    <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen. “</t>
   </si>
   <si>
     <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
@@ -151,7 +151,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1437,13 +1437,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t xml:space="preserve">David saw Anna for the first time when she burst into the airport with her bag skidding behind her half-zipped. </t>
@@ -151,7 +154,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1437,7 +1440,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1451,14 +1460,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="92.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1466,14 +1477,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>42</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="68.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1488,7 +1501,7 @@
     </row>
     <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1503,7 +1516,7 @@
     </row>
     <row r="5" ht="68.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1518,7 +1531,7 @@
     </row>
     <row r="6" ht="68.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1533,7 +1546,7 @@
     </row>
     <row r="7" ht="92.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1548,7 +1561,7 @@
     </row>
     <row r="8" ht="92.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1578,7 +1591,7 @@
     </row>
     <row r="10" ht="116.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -1593,7 +1606,7 @@
     </row>
     <row r="11" ht="80.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1608,7 +1621,7 @@
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -1623,7 +1636,7 @@
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -1638,7 +1651,7 @@
     </row>
     <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
@@ -1668,7 +1681,7 @@
     </row>
     <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -1683,7 +1696,7 @@
     </row>
     <row r="17" ht="92.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -1698,7 +1711,7 @@
     </row>
     <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -1713,7 +1726,7 @@
     </row>
     <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
@@ -1728,7 +1741,7 @@
     </row>
     <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
@@ -1743,7 +1756,7 @@
     </row>
     <row r="21" ht="56.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -1758,7 +1771,7 @@
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -1773,7 +1786,7 @@
     </row>
     <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>2</v>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -1803,7 +1816,7 @@
     </row>
     <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>2</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="26" ht="56.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>2</v>
@@ -1833,7 +1846,7 @@
     </row>
     <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>2</v>
@@ -1848,7 +1861,7 @@
     </row>
     <row r="28" ht="44.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>2</v>
@@ -1863,7 +1876,7 @@
     </row>
     <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -1878,7 +1891,7 @@
     </row>
     <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>2</v>
@@ -1893,7 +1906,7 @@
     </row>
     <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>2</v>
@@ -1908,7 +1921,7 @@
     </row>
     <row r="32" ht="56.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>2</v>
@@ -1923,7 +1936,7 @@
     </row>
     <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>3</v>
@@ -1938,7 +1951,7 @@
     </row>
     <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
@@ -1953,7 +1966,7 @@
     </row>
     <row r="35" ht="164.05" customHeight="1">
       <c r="A35" t="s" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9">
         <v>3</v>
@@ -1968,7 +1981,7 @@
     </row>
     <row r="36" ht="152.05" customHeight="1">
       <c r="A36" t="s" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="9">
         <v>3</v>
@@ -1983,7 +1996,7 @@
     </row>
     <row r="37" ht="92.05" customHeight="1">
       <c r="A37" t="s" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>3</v>
@@ -1998,7 +2011,7 @@
     </row>
     <row r="38" ht="92.05" customHeight="1">
       <c r="A38" t="s" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9">
         <v>4</v>
@@ -2013,7 +2026,7 @@
     </row>
     <row r="39" ht="128.05" customHeight="1">
       <c r="A39" t="s" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="9">
         <v>4</v>
@@ -2028,7 +2041,7 @@
     </row>
     <row r="40" ht="104.05" customHeight="1">
       <c r="A40" t="s" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="9">
         <v>4</v>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>storyText</t>
   </si>
@@ -26,10 +26,10 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport with her bag skidding behind her half-zipped. </t>
-  </si>
-  <si>
-    <t>He had three hours until his flight, but she clearly had less than one.</t>
+    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport frazzled with her bag skidding behind her half-zipped. </t>
+  </si>
+  <si>
+    <t>He had three hours until his flight and been holding his laptop, reading, in the lobby, but she clearly had 35 minutes.</t>
   </si>
   <si>
     <t xml:space="preserve">Anna’s yoga class had ran over, and afterwards, she, forgetting the time, had lingered to talk with friends. </t>
@@ -38,9 +38,6 @@
     <t>Despite Anna's frazzled state, David was instantly intrigued by her.</t>
   </si>
   <si>
-    <t>He thought she was beautiful, and she reminded him of one of his favorite paintings.</t>
-  </si>
-  <si>
     <t>Anna, a few strides into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
   </si>
   <si>
@@ -59,13 +56,13 @@
     <t>He gave a smile back.</t>
   </si>
   <si>
-    <t>“You alright?”, he said.</t>
-  </si>
-  <si>
-    <t>She whispered, “Uh yeah.</t>
-  </si>
-  <si>
-    <t>I almost got smooshed by that cart.”</t>
+    <t>“Were you ever a gymnast? That was a nice tumble,” he said.</t>
+  </si>
+  <si>
+    <t>She managed a chuckle and said, “Actually yes, but I’d say that deserved a score of zero.</t>
+  </si>
+  <si>
+    <t>Wow- I almost got smooshed by that cart.”</t>
   </si>
   <si>
     <t xml:space="preserve">Her head was still spinning as she stared at the handsome stranger who had saved her. </t>
@@ -89,28 +86,31 @@
     <t xml:space="preserve">They headed to the security line. </t>
   </si>
   <si>
-    <t>The line was not long, and they spent the time chatting and getting to know each other.</t>
-  </si>
-  <si>
-    <t>It turned out that Anna and David went to the same high school but Anna had been 3 years older.</t>
-  </si>
-  <si>
-    <t>When they got to the front of the line they took off their shoes and pulled off their coats.</t>
+    <t>The line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this span of time, they managed to find out that they had gone to the same high school but Anna graduated 3 years before David. </t>
+  </si>
+  <si>
+    <t>They hurriedly took off their shoes and coats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna placed her purse and suitcase on the conveyor belt, and David put his backpack on the conveyor belt as well, with his laptop in a separate bin. </t>
   </si>
   <si>
     <t xml:space="preserve">Both of them went through the metal detector without any problems. </t>
   </si>
   <si>
-    <t>Anna’s flight was in 20 minutes, and as she was rushing to put her shoes and coat back on, David asked her, “So when are you coming back?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“In a week, it’s a short trip,” Anna replied. </t>
+    <t>As they were rushing to put their shoes and coats on, David asked her, “So when are you coming back?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“In a week- it’s a short trip,” Anna replied. </t>
   </si>
   <si>
     <t>“Me too,” David said.</t>
   </si>
   <si>
-    <t>He continued, “When we're back in town, is there any chance you'd want to get dinner?</t>
+    <t>He paused and after a thinking for a few moments finally said, “When we're back in town next Tuesday, is there any chance you'd want to get dinner?</t>
   </si>
   <si>
     <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen. “</t>
@@ -119,22 +119,31 @@
     <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Then they ran off to Anna’s gate which was at the end of the terminal. </t>
-  </si>
-  <si>
-    <t>David took put on her backpack, grabbed her hand, and navigated quickly through the crowds of people.</t>
+    <t xml:space="preserve">Then they ran off to Anna’s gate, J37, which was at the end of the terminal. </t>
+  </si>
+  <si>
+    <t>David took her suitcase, grabbed her hand, and navigated quickly through the crowds of people.</t>
   </si>
   <si>
     <t>Anna was amazed at everything that was happening; she had arrived at the airport doubtful that she would make it and was now confident that she would due to this handsome and kind man she just met.</t>
   </si>
   <si>
-    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the backpack, and he promised to call her next week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She gave him one last embarrassed smile and approached the flight attendant who scanned her ticket. </t>
-  </si>
-  <si>
-    <t>Finally, she boarded the plane, sliding into her window seat located all the way in the back of the plane.</t>
+    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the suitcase.</t>
+  </si>
+  <si>
+    <t>She gave him one last embarrassed smile, thanked him, and hurried away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David looked at his watch which read 10:55 AM, 5 minutes before her flight was supposed to leave, and he took a deep breath of relief. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She waved to the flight attendant who motioned for her to hurry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna got out her ticket and the flight attendant scanned it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, she boarded the plane, sliding into her window seat 7D in business class. </t>
   </si>
   <si>
     <t xml:space="preserve">Barely containing her glee, she ignored the grumbles of complaint as she squeezed past the other passengers in her row and settled back in her seat. </t>
@@ -154,7 +163,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1432,7 +1441,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1440,13 +1449,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1467,7 +1470,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="104.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1484,7 +1487,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="68.05" customHeight="1">
+    <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="68.05" customHeight="1">
+    <row r="6" ht="92.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="92.05" customHeight="1">
+    <row r="8" ht="80.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1574,7 +1577,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="80.05" customHeight="1">
+    <row r="9" ht="116.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1582,14 +1585,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="116.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1604,7 +1607,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="80.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1619,7 +1622,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="32.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1634,7 +1637,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="32.05" customHeight="1">
+    <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1649,7 +1652,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="32.05" customHeight="1">
+    <row r="14" ht="44.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1664,7 +1667,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="44.05" customHeight="1">
+    <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1679,7 +1682,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="80.05" customHeight="1">
+    <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1694,7 +1697,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="92.05" customHeight="1">
+    <row r="17" ht="44.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1709,7 +1712,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="44.05" customHeight="1">
+    <row r="18" ht="56.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1724,7 +1727,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="56.05" customHeight="1">
+    <row r="19" ht="44.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1739,7 +1742,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="44.05" customHeight="1">
+    <row r="20" ht="56.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1754,12 +1757,12 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="56.05" customHeight="1">
+    <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
       <c r="B21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
@@ -1769,7 +1772,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="32.05" customHeight="1">
+    <row r="22" ht="104.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1784,7 +1787,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="80.05" customHeight="1">
+    <row r="23" ht="116.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="44.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1814,7 +1817,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="80.05" customHeight="1">
+    <row r="25" ht="128.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1837,14 +1840,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="92.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1867,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1882,14 +1885,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="80.05" customHeight="1">
+    <row r="30" ht="128.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1949,7 +1952,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="92.05" customHeight="1">
+    <row r="34" ht="80.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1979,7 +1982,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="152.05" customHeight="1">
+    <row r="36" ht="128.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -1987,14 +1990,14 @@
         <v>3</v>
       </c>
       <c r="C36" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="92.05" customHeight="1">
+    <row r="37" ht="68.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2009,12 +2012,12 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="92.05" customHeight="1">
+    <row r="38" ht="116.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
       <c r="B38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
@@ -2024,12 +2027,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="128.05" customHeight="1">
+    <row r="39" ht="56.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B39" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
@@ -2039,12 +2042,12 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="104.05" customHeight="1">
+    <row r="40" ht="56.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>42</v>
       </c>
       <c r="B40" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="10">
         <v>4</v>
@@ -2054,28 +2057,46 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="11"/>
+    <row r="41" ht="68.05" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="11"/>
+    <row r="42" ht="128.05" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>4</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11"/>
+    <row r="43" ht="104.05" customHeight="1">
+      <c r="A43" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2099,6 +2120,33 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -26,34 +26,25 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">David saw Anna for the first time when she burst into the airport frazzled with her bag skidding behind her half-zipped. </t>
-  </si>
-  <si>
-    <t>He had three hours until his flight and been holding his laptop, reading, in the lobby, but she clearly had 35 minutes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna’s yoga class had ran over, and afterwards, she, forgetting the time, had lingered to talk with friends. </t>
-  </si>
-  <si>
-    <t>Despite Anna's frazzled state, David was instantly intrigued by her.</t>
+    <t>David saw Anna for the first time when she burst into the airport frazzled with her half-zipped bag skidding behind her.</t>
+  </si>
+  <si>
+    <t>He had three hours until his flight and been holding his laptop, reading, in the lobby, but she had only 35 minutes.</t>
   </si>
   <si>
     <t>Anna, a few strides into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
   </si>
   <si>
-    <t xml:space="preserve">David observed that someone with a tall cart of luggage was heading straight for where Anna was kneeling. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both Anna and the person driving the cart were oblivious to the impending collision. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David had to intervene, and he ran in front of the cart pushing her out of the way just in the nick of time, and they tumbled on the airport floor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna, bewildered, looked up and saw the cart pass by and then looked over at David. </t>
-  </si>
-  <si>
-    <t>He gave a smile back.</t>
+    <t xml:space="preserve">David, who had been intrigued by Anna, observed that someone with a tall cart of luggage was heading straight for where she was kneeling and that both her and the person driving the cart were oblivious to the impeding collision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a few moment of deliberation, David decided to intervene, and he ran in front of the cart pushing her out of the way just in the nick of time, and they tumbled on the airport floor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna, bewildered, looked up and saw the cart pass by and then looked at David. </t>
+  </si>
+  <si>
+    <t>He flashed a smile.</t>
   </si>
   <si>
     <t>“Were you ever a gymnast? That was a nice tumble,” he said.</t>
@@ -83,10 +74,10 @@
     <t>“Really , I have plenty of time and nothing better to do.”</t>
   </si>
   <si>
-    <t xml:space="preserve">They headed to the security line. </t>
-  </si>
-  <si>
-    <t>The line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
+    <t>At security, the line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had to wait however, because there was a strange malfunction of the metal detector. </t>
   </si>
   <si>
     <t xml:space="preserve">In this span of time, they managed to find out that they had gone to the same high school but Anna graduated 3 years before David. </t>
@@ -101,16 +92,10 @@
     <t xml:space="preserve">Both of them went through the metal detector without any problems. </t>
   </si>
   <si>
-    <t>As they were rushing to put their shoes and coats on, David asked her, “So when are you coming back?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“In a week- it’s a short trip,” Anna replied. </t>
-  </si>
-  <si>
-    <t>“Me too,” David said.</t>
-  </si>
-  <si>
-    <t>He paused and after a thinking for a few moments finally said, “When we're back in town next Tuesday, is there any chance you'd want to get dinner?</t>
+    <t xml:space="preserve">As they were rushing to put their shoes and coats on, they shared when they were coming back. </t>
+  </si>
+  <si>
+    <t>In a moment of boldness, David said, “When we're back in town next Tuesday, is there any chance you'd want to get dinner?</t>
   </si>
   <si>
     <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen. “</t>
@@ -119,16 +104,16 @@
     <t>She stopped packing, and said with a smile, “Yes I would love that.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Then they ran off to Anna’s gate, J37, which was at the end of the terminal. </t>
-  </si>
-  <si>
-    <t>David took her suitcase, grabbed her hand, and navigated quickly through the crowds of people.</t>
-  </si>
-  <si>
-    <t>Anna was amazed at everything that was happening; she had arrived at the airport doubtful that she would make it and was now confident that she would due to this handsome and kind man she just met.</t>
-  </si>
-  <si>
-    <t>As they approached her gate, Anna fished out a crumbled business card from her pocket and handed it to David, who handed her the suitcase.</t>
+    <t xml:space="preserve">On the concourse, they were running to get to Anna’s gate, J37, which was at the end of the terminal. </t>
+  </si>
+  <si>
+    <t>David took her suitcase, grabbed her hand, and led a steady jog through the crowd of people.</t>
+  </si>
+  <si>
+    <t>People passing them were giving them funny looks because Anna looked so bewildered.</t>
+  </si>
+  <si>
+    <t>Before getting to the gate, explaining that she would sprint the rest of the way, Anna fished out a crumpled business card from her pocket and handed it to David, who handed her the suitcase.</t>
   </si>
   <si>
     <t>She gave him one last embarrassed smile, thanked him, and hurried away.</t>
@@ -137,16 +122,10 @@
     <t xml:space="preserve">David looked at his watch which read 10:55 AM, 5 minutes before her flight was supposed to leave, and he took a deep breath of relief. </t>
   </si>
   <si>
-    <t xml:space="preserve">She waved to the flight attendant who motioned for her to hurry. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna got out her ticket and the flight attendant scanned it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, she boarded the plane, sliding into her window seat 7D in business class. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barely containing her glee, she ignored the grumbles of complaint as she squeezed past the other passengers in her row and settled back in her seat. </t>
+    <t xml:space="preserve">At the gate, Anna waved to the flight attendant who motioned for her to hurry and she boarded the plane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She slid into her window seat 7D in business class, and barely containing her glee, she hugged the plastic-wrapped blanket. </t>
   </si>
   <si>
     <t>She was thankful that she had not only made it onto the plane in time, but also that she had been clumsy enough to forget to tie her shoes.</t>
@@ -353,10 +332,10 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1441,7 +1420,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1487,7 +1466,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="92.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1517,7 +1496,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="68.05" customHeight="1">
+    <row r="5" ht="176.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1532,7 +1511,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="92.05" customHeight="1">
+    <row r="6" ht="152.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1540,14 +1519,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="92.05" customHeight="1">
+    <row r="7" ht="68.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1555,14 +1534,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="80.05" customHeight="1">
+    <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1570,14 +1549,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="116.05" customHeight="1">
+    <row r="9" ht="56.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1607,7 +1586,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="32.05" customHeight="1">
+    <row r="11" ht="44.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1622,7 +1601,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="56.05" customHeight="1">
+    <row r="12" ht="80.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1637,7 +1616,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1667,7 +1646,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="80.05" customHeight="1">
+    <row r="15" ht="56.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1682,7 +1661,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="92.05" customHeight="1">
+    <row r="16" ht="44.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1697,7 +1676,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="44.05" customHeight="1">
+    <row r="17" ht="56.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1712,12 +1691,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="56.05" customHeight="1">
+    <row r="18" ht="104.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1727,27 +1706,23 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="44.05" customHeight="1">
+    <row r="19" ht="80.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="56.05" customHeight="1">
+    <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1757,7 +1732,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="32.05" customHeight="1">
+    <row r="21" ht="44.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1772,7 +1747,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="104.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1787,7 +1762,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="116.05" customHeight="1">
+    <row r="23" ht="56.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1802,7 +1777,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="44.05" customHeight="1">
+    <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1817,7 +1792,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="128.05" customHeight="1">
+    <row r="25" ht="104.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1825,14 +1800,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="56.05" customHeight="1">
+    <row r="26" ht="80.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1840,14 +1815,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="92.05" customHeight="1">
+    <row r="27" ht="56.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1855,49 +1830,49 @@
         <v>2</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="44.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="32.05" customHeight="1">
+    <row r="29" ht="80.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="128.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B30" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -1907,37 +1882,37 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="164.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
       <c r="B31" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="56.05" customHeight="1">
+    <row r="32" ht="68.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="116.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1945,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1957,195 +1932,90 @@
         <v>36</v>
       </c>
       <c r="B34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="164.05" customHeight="1">
+    <row r="35" ht="104.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
       <c r="B35" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="128.05" customHeight="1">
+    <row r="36" ht="104.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
       <c r="B36" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="68.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="116.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="56.05" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="10">
-        <v>4</v>
-      </c>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="56.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="68.05" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
-      <c r="C41" s="10">
-        <v>4</v>
-      </c>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="128.05" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9">
-        <v>4</v>
-      </c>
-      <c r="C42" s="10">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" ht="104.05" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="B43" s="9">
-        <v>4</v>
-      </c>
-      <c r="C43" s="10">
-        <v>4</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -29,7 +29,7 @@
     <t>David saw Anna for the first time when she burst into the airport frazzled with her half-zipped bag skidding behind her.</t>
   </si>
   <si>
-    <t>He had three hours until his flight and been holding his laptop, reading, in the lobby, but she had only 35 minutes.</t>
+    <t>He had three hours until his flight and been holding his laptop, reading and relaxing, in the lobby, but she had only 35 minutes.</t>
   </si>
   <si>
     <t>Anna, a few strides into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
@@ -47,7 +47,10 @@
     <t>He flashed a smile.</t>
   </si>
   <si>
-    <t>“Were you ever a gymnast? That was a nice tumble,” he said.</t>
+    <t>“Were you ever a gymnast?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That was a nice tumble,” he said.</t>
   </si>
   <si>
     <t>She managed a chuckle and said, “Actually yes, but I’d say that deserved a score of zero.</t>
@@ -71,7 +74,7 @@
     <t xml:space="preserve">He waved off her half-hearted protests. </t>
   </si>
   <si>
-    <t>“Really , I have plenty of time and nothing better to do.”</t>
+    <t>“Really- I have plenty of time and nothing better to do.”</t>
   </si>
   <si>
     <t>At security, the line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
@@ -107,7 +110,7 @@
     <t xml:space="preserve">On the concourse, they were running to get to Anna’s gate, J37, which was at the end of the terminal. </t>
   </si>
   <si>
-    <t>David took her suitcase, grabbed her hand, and led a steady jog through the crowd of people.</t>
+    <t>David took her suitcase, grabbed her hand, and weaved crowd of people.</t>
   </si>
   <si>
     <t>People passing them were giving them funny looks because Anna looked so bewildered.</t>
@@ -1420,7 +1423,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1466,7 +1469,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="92.05" customHeight="1">
+    <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="56.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="80.05" customHeight="1">
+    <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="44.05" customHeight="1">
+    <row r="11" ht="80.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="80.05" customHeight="1">
+    <row r="12" ht="44.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="92.05" customHeight="1">
+    <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="44.05" customHeight="1">
+    <row r="14" ht="92.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1646,7 +1649,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="56.05" customHeight="1">
+    <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1661,7 +1664,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="44.05" customHeight="1">
+    <row r="16" ht="56.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1676,7 +1679,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="56.05" customHeight="1">
+    <row r="17" ht="44.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1691,12 +1694,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="104.05" customHeight="1">
+    <row r="18" ht="56.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1706,33 +1709,33 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="104.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="116.05" customHeight="1">
+    <row r="20" ht="80.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B20" s="9">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1747,7 +1750,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="128.05" customHeight="1">
+    <row r="22" ht="44.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1762,7 +1765,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="56.05" customHeight="1">
+    <row r="23" ht="128.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="92.05" customHeight="1">
+    <row r="24" ht="56.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="104.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1800,14 +1803,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="80.05" customHeight="1">
+    <row r="26" ht="104.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1822,7 +1825,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="56.05" customHeight="1">
+    <row r="27" ht="80.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1837,12 +1840,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
+    <row r="28" ht="56.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -1867,7 +1870,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="80.05" customHeight="1">
+    <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1882,7 +1885,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="164.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1890,14 +1893,14 @@
         <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="68.05" customHeight="1">
+    <row r="32" ht="164.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="116.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1927,12 +1930,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="80.05" customHeight="1">
+    <row r="34" ht="116.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B34" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="10">
         <v>4</v>
@@ -1942,7 +1945,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="104.05" customHeight="1">
+    <row r="35" ht="80.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -1972,10 +1975,16 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
+    <row r="37" ht="104.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2017,6 +2026,15 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -29,10 +29,10 @@
     <t>David saw Anna for the first time when she burst into the airport frazzled with her half-zipped bag skidding behind her.</t>
   </si>
   <si>
-    <t>He had three hours until his flight and been holding his laptop, reading and relaxing, in the lobby, but she had only 35 minutes.</t>
-  </si>
-  <si>
-    <t>Anna, a few strides into the airport, suddenly realized her shoes were untied, so she hunched over to tie them.</t>
+    <t xml:space="preserve">He had three hours until his flight and was reading a book on the laptop he was holding in the entrance to the airport, but she had only 35 minutes and was hoping to spend as little time in the entrance as possible. </t>
+  </si>
+  <si>
+    <t>Anna, a few strides into the airport, suddenly realized to her dismay that her shoes were untied, so she hunched over to tie them.</t>
   </si>
   <si>
     <t xml:space="preserve">David, who had been intrigued by Anna, observed that someone with a tall cart of luggage was heading straight for where she was kneeling and that both her and the person driving the cart were oblivious to the impeding collision. </t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">He waved off her half-hearted protests. </t>
   </si>
   <si>
-    <t>“Really- I have plenty of time and nothing better to do.”</t>
+    <t xml:space="preserve">“Really- I have plenty of time and nothing better to do.” he said. </t>
   </si>
   <si>
     <t>At security, the line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">They had to wait however, because there was a strange malfunction of the metal detector. </t>
   </si>
   <si>
-    <t xml:space="preserve">In this span of time, they managed to find out that they had gone to the same high school but Anna graduated 3 years before David. </t>
+    <t xml:space="preserve">In this span of time, they managed to find out that they had gone to the same high school and that Anna had graduated 3 years before David. </t>
   </si>
   <si>
     <t>They hurriedly took off their shoes and coats.</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">As they were rushing to put their shoes and coats on, they shared when they were coming back. </t>
   </si>
   <si>
-    <t>In a moment of boldness, David said, “When we're back in town next Tuesday, is there any chance you'd want to get dinner?</t>
+    <t>In a moment of boldness, David asked, “When we're back in town next Tuesday, is there any chance you'd want to get dinner?</t>
   </si>
   <si>
     <t>I know we just met, but when life throws a luggage cart at you it seems like we should listen. “</t>
@@ -122,7 +122,7 @@
     <t>She gave him one last embarrassed smile, thanked him, and hurried away.</t>
   </si>
   <si>
-    <t xml:space="preserve">David looked at his watch which read 10:55 AM, 5 minutes before her flight was supposed to leave, and he took a deep breath of relief. </t>
+    <t xml:space="preserve">David looked at his watch which read 10:55 AM, 5 minutes before her flight was supposed to leave. </t>
   </si>
   <si>
     <t xml:space="preserve">At the gate, Anna waved to the flight attendant who motioned for her to hurry and she boarded the plane. </t>
@@ -335,10 +335,10 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1469,7 +1469,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="176.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="92.05" customHeight="1">
+    <row r="4" ht="116.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1728,8 +1728,12 @@
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1810,7 +1814,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="104.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1930,7 +1934,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
+    <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1991,8 +1995,8 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -2000,8 +2004,8 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -2009,8 +2013,8 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -2018,8 +2022,8 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -2027,8 +2031,8 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>

--- a/story_xlsx_files/42.xlsx
+++ b/story_xlsx_files/42.xlsx
@@ -29,13 +29,13 @@
     <t>David saw Anna for the first time when she burst into the airport frazzled with her half-zipped bag skidding behind her.</t>
   </si>
   <si>
-    <t xml:space="preserve">He had three hours until his flight and was reading a book on the laptop he was holding in the entrance to the airport, but she had only 35 minutes and was hoping to spend as little time in the entrance as possible. </t>
+    <t xml:space="preserve">He had three hours until his flight and had been reading a book on the laptop he was holding in the entrance to the airport, but she had only 35 minutes and was hoping to spend as little time in the entrance as possible. </t>
   </si>
   <si>
     <t>Anna, a few strides into the airport, suddenly realized to her dismay that her shoes were untied, so she hunched over to tie them.</t>
   </si>
   <si>
-    <t xml:space="preserve">David, who had been intrigued by Anna, observed that someone with a tall cart of luggage was heading straight for where she was kneeling and that both her and the person driving the cart were oblivious to the impeding collision. </t>
+    <t xml:space="preserve">David, who had been intrigued by Anna, observed that someone with a tall cart of luggage was heading straight for where she was kneeling and that both her and the person driving the cart were oblivious to the impending collision. </t>
   </si>
   <si>
     <t xml:space="preserve">After a few moment of deliberation, David decided to intervene, and he ran in front of the cart pushing her out of the way just in the nick of time, and they tumbled on the airport floor. </t>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">Anna, bewildered, looked up and saw the cart pass by and then looked at David. </t>
   </si>
   <si>
-    <t>He flashed a smile.</t>
-  </si>
-  <si>
-    <t>“Were you ever a gymnast?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That was a nice tumble,” he said.</t>
-  </si>
-  <si>
-    <t>She managed a chuckle and said, “Actually yes, but I’d say that deserved a score of zero.</t>
+    <t>He flashed a smile and asked, “Were you ever a gymnast?</t>
+  </si>
+  <si>
+    <t>Because that was a nice tumble.”</t>
+  </si>
+  <si>
+    <t>She managed a chuckle and said, “Actually, yes, but I’d say that deserved a score of zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe a ‘1’ at least for your effort. </t>
   </si>
   <si>
     <t>Wow- I almost got smooshed by that cart.”</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">“Really- I have plenty of time and nothing better to do.” he said. </t>
   </si>
   <si>
-    <t>At security, the line was not long, but since Anna’s flight was so soon the security guard allowed them to go to the front of the line.</t>
+    <t>At security, the line was not long, but, since Anna’s flight departure was close at hand, the security guard allowed them to go to the front of the line.</t>
   </si>
   <si>
     <t xml:space="preserve">They had to wait however, because there was a strange malfunction of the metal detector. </t>
@@ -113,7 +113,7 @@
     <t>David took her suitcase, grabbed her hand, and weaved crowd of people.</t>
   </si>
   <si>
-    <t>People passing them were giving them funny looks because Anna looked so bewildered.</t>
+    <t>People passing them were giving them funny looks because Anna appeared so bewildered on account of David’s help.</t>
   </si>
   <si>
     <t>Before getting to the gate, explaining that she would sprint the rest of the way, Anna fished out a crumpled business card from her pocket and handed it to David, who handed her the suitcase.</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">David looked at his watch which read 10:55 AM, 5 minutes before her flight was supposed to leave. </t>
   </si>
   <si>
-    <t xml:space="preserve">At the gate, Anna waved to the flight attendant who motioned for her to hurry and she boarded the plane. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She slid into her window seat 7D in business class, and barely containing her glee, she hugged the plastic-wrapped blanket. </t>
+    <t xml:space="preserve">At the gate, Anna waved to the flight attendant who motioned for her to hurry, and she boarded the plane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She slid into her window seat, 7D, in business class, and barely containing her glee, she hugged the plastic-wrapped blanket. </t>
   </si>
   <si>
     <t>She was thankful that she had not only made it onto the plane in time, but also that she had been clumsy enough to forget to tie her shoes.</t>
@@ -1469,7 +1469,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="176.05" customHeight="1">
+    <row r="3" ht="188.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="176.05" customHeight="1">
+    <row r="5" ht="188.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="32.05" customHeight="1">
+    <row r="8" ht="56.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="80.05" customHeight="1">
+    <row r="11" ht="44.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="104.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="104.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
